--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nrg2-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nrg2-Erbb4.xlsx
@@ -76,13 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -537,31 +537,31 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1058776666666667</v>
+        <v>0.023695</v>
       </c>
       <c r="H2">
-        <v>0.317633</v>
+        <v>0.04739</v>
       </c>
       <c r="I2">
-        <v>0.1394352143571743</v>
+        <v>0.06632634971345823</v>
       </c>
       <c r="J2">
-        <v>0.1394352143571743</v>
+        <v>0.04521726519033903</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N2">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0005744922193333332</v>
+        <v>0.0002559652375</v>
       </c>
       <c r="R2">
-        <v>0.003446953316</v>
+        <v>0.00102386095</v>
       </c>
       <c r="S2">
-        <v>0.1394352143571743</v>
+        <v>0.06632634971345823</v>
       </c>
       <c r="T2">
-        <v>0.1394352143571743</v>
+        <v>0.04521726519033903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,34 +596,34 @@
         <v>26</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.1058776666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.317633</v>
+      </c>
+      <c r="I3">
+        <v>0.2963696622147411</v>
+      </c>
+      <c r="J3">
+        <v>0.3030701750201088</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G3">
-        <v>0.1126416666666667</v>
-      </c>
-      <c r="H3">
-        <v>0.337925</v>
-      </c>
-      <c r="I3">
-        <v>0.1483430399601053</v>
-      </c>
-      <c r="J3">
-        <v>0.1483430399601053</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N3">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0006111936833333334</v>
+        <v>0.001143743494166667</v>
       </c>
       <c r="R3">
-        <v>0.0036671621</v>
+        <v>0.006862460965</v>
       </c>
       <c r="S3">
-        <v>0.1483430399601053</v>
+        <v>0.2963696622147411</v>
       </c>
       <c r="T3">
-        <v>0.1483430399601053</v>
+        <v>0.3030701750201088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,34 +658,34 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02072366666666667</v>
+        <v>0.217892</v>
       </c>
       <c r="H4">
-        <v>0.062171</v>
+        <v>0.6536759999999999</v>
       </c>
       <c r="I4">
-        <v>0.02729195868124497</v>
+        <v>0.6099169019525148</v>
       </c>
       <c r="J4">
-        <v>0.02729195868124497</v>
+        <v>0.6237062891023433</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N4">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0001124466153333333</v>
+        <v>0.002353778329999999</v>
       </c>
       <c r="R4">
-        <v>0.000674679692</v>
+        <v>0.01412266998</v>
       </c>
       <c r="S4">
-        <v>0.02729195868124497</v>
+        <v>0.6099169019525148</v>
       </c>
       <c r="T4">
-        <v>0.02729195868124497</v>
+        <v>0.6237062891023433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,34 +720,34 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.5200893333333334</v>
+        <v>0.009783999999999999</v>
       </c>
       <c r="H5">
-        <v>1.560268</v>
+        <v>0.029352</v>
       </c>
       <c r="I5">
-        <v>0.6849297870014754</v>
+        <v>0.02738708611928573</v>
       </c>
       <c r="J5">
-        <v>0.6849297870014754</v>
+        <v>0.02800627068720893</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N5">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.002822004722666667</v>
+        <v>0.00010569166</v>
       </c>
       <c r="R5">
-        <v>0.016932028336</v>
+        <v>0.0006341499599999999</v>
       </c>
       <c r="S5">
-        <v>0.6849297870014754</v>
+        <v>0.02738708611928573</v>
       </c>
       <c r="T5">
-        <v>0.6849297870014754</v>
+        <v>0.02800627068720893</v>
       </c>
     </row>
   </sheetData>
